--- a/scripts/Training-Data/Completed_Topic_COVID-19-Language-English.xlsx
+++ b/scripts/Training-Data/Completed_Topic_COVID-19-Language-English.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z5089130/Documents/GitHub/HealthCommunity/chatbots/covid-19/scripts/Training-Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z5089130/Documents/GitHub/COVID19-Chatbot/scripts/Training-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3EC331-C079-CA49-968B-652D004F68F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6156885E-47A6-934D-BCF2-8FBB29E2E765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{1F0EAFE3-A858-B241-A275-8F6BF56394B7}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="5" xr2:uid="{1F0EAFE3-A858-B241-A275-8F6BF56394B7}"/>
   </bookViews>
   <sheets>
     <sheet name="General Questions" sheetId="11" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Pregnancy and Breastfeeding" sheetId="19" r:id="rId6"/>
     <sheet name="Groups at Higher Risk" sheetId="20" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -352,32 +352,11 @@
     <t xml:space="preserve">In order to avoid infecting others, you should use a mask for as long as you are still coughing or sneezing. You should only stop after a complete recovery (which means 24-48 hours after having no symptoms without medication). </t>
   </si>
   <si>
-    <t>&gt;You should limit the movement around the house of the individual who is ill and minimize shared space. 
-&gt;Ensure shared spaces like bathrooms, and the kitchen are well ventilated. One way to do this is by keeping the windows open. Clean and disinfect the bathroom and toilet surface at least once a day using regular household soap or detergent for cleaning and then disinfecting with a regular household disinfectant containing 0.5% sodium hypochlorite.
-&gt;Do not forget the importance of hand hygiene with alcohol-based hand-rub or soap and water (if hands are visibly soiled).
-&gt;Whenever possible, household members should stay in a different room or maintain a distance of at least 1 meter from the ill person.
-&gt;When helping care for the sick individual, wear a tightly fitted medical/surgical mask that covers your nose and mouth when in the same room as the affected individual. Make sure you are careful not to touch your mask. If your mask gets wet or dirty, it should be replaced. When removing a mask, it is important to throw it away and perform hand hygiene. Dispose of any material with respiratory secretions immediately after use.
-&gt;Both the ill individual and you, as the caregiver, should perform hand hygiene after contact with respiratory secretions.</t>
-  </si>
-  <si>
     <t>&gt;If you have just returned from an affected area, you should self-monitor for symptoms for 14 days after travel. 
 &gt;During that period, you should immediately seek medical attention should you develop any signs and symptoms, such as shortness of breath or cough. 
 &gt;Remember to share your previous travel history with your health care provider and make every effort to inform them by phone prior to visiting a medical facility and wear a medical mask when you seek medical care. 
 &gt;You should only return to work when you are well and completely free of symptoms. 
 &gt;HR personnel and managers are encouraged to exercise flexibility around remote working to support staff.</t>
-  </si>
-  <si>
-    <t>Based on what we know now, those at high-risk for severe illness from COVID-19 are:
-&gt;People aged 65 years and older
-&gt;People who live in a nursing home or long-term care facility
-People of all ages with underlying medical conditions, particularly if not well controlled, including:
-&gt;People with chronic lung disease or moderate to severe asthma
-&gt;People who have serious heart conditions
-&gt;People who are immunocompromised.
-&gt;People with severe obesity (body mass index [BMI] ≥40)
-&gt;People with diabetes
-&gt;People with chronic kidney disease undergoing dialysis
-&gt;People with liver disease</t>
   </si>
   <si>
     <t>How can I protect myself against covid?</t>
@@ -1451,6 +1430,28 @@
 What's covid?
 What's covid-19?
 What's coronavirus?</t>
+  </si>
+  <si>
+    <t>Based on what we know now, those at high-risk for severe illness from COVID-19 are:
+- People aged 65 years and older
+- People who live in a nursing home or long-term care facility
+People of all ages with underlying medical conditions, particularly if not well controlled, including:
+- People with chronic lung disease or moderate to severe asthma
+- People who have serious heart conditions
+- People who are immunocompromised.
+- People with severe obesity (body mass index [BMI] ≥40)
+- People with diabetes
+- People with chronic kidney disease undergoing dialysis
+- People with liver disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- You should limit the movement around the house of the individual who is ill and minimize shared space. 
+- Ensure shared spaces like bathrooms, and the kitchen are well ventilated. One way to do this is by keeping the windows open. Clean and disinfect the bathroom and toilet surface at least once a day using regular household soap or detergent for cleaning and then disinfecting with a regular household disinfectant containing 0.5% sodium hypochlorite.
+- Do not forget the importance of hand hygiene with alcohol-based hand-rub or soap and water (if hands are visibly soiled).
+- Whenever possible, household members should stay in a different room or maintain a distance of at least 1 meter from the ill person.
+- When helping care for the sick individual, wear a tightly fitted medical/surgical mask that covers your nose and mouth when in the same room as the affected individual. Make sure you are careful not to touch your mask. If your mask gets wet or dirty, it should be replaced. When removing a mask, it is important to throw it away and perform hand hygiene. Dispose of any material with respiratory secretions immediately after use.
+- Both the ill individual and you, as the caregiver, should perform hand hygiene after contact with respiratory secretions.</t>
   </si>
 </sst>
 </file>
@@ -1830,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11CEA01-DB07-D249-AEB6-83192058860E}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1858,25 +1859,25 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="136">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1888,10 +1889,10 @@
         <v>68</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="68">
@@ -1902,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>64</v>
@@ -1910,16 +1911,16 @@
     </row>
     <row r="6" spans="1:4" ht="51">
       <c r="A6" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="C6" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="170">
@@ -1927,10 +1928,10 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>66</v>
@@ -1944,7 +1945,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>85</v>
@@ -1958,7 +1959,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -1972,7 +1973,7 @@
         <v>71</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>83</v>
@@ -1983,7 +1984,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>79</v>
@@ -2055,13 +2056,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="204">
@@ -2069,10 +2070,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34">
@@ -2086,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="85">
@@ -2127,7 +2128,7 @@
         <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>389</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>94</v>
@@ -2166,29 +2167,29 @@
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34">
       <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
-        <v>106</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="323">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="340">
       <c r="A28" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>390</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
@@ -2207,16 +2208,16 @@
     </row>
     <row r="30" spans="1:4" ht="51">
       <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
         <v>108</v>
       </c>
-      <c r="B30" t="s">
-        <v>110</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2235,7 +2236,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>86</v>
@@ -2252,12 +2253,12 @@
         <v>10</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="51">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -2266,7 +2267,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17">
@@ -2280,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2296,7 +2297,7 @@
     </row>
     <row r="37" spans="1:4" ht="34">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -2305,12 +2306,12 @@
         <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="85">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
@@ -2319,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2344,7 +2345,7 @@
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2358,7 +2359,7 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2388,13 +2389,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="187">
@@ -2402,13 +2403,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="204">
@@ -2416,13 +2417,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="136">
@@ -2430,249 +2431,249 @@
         <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="372">
       <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="221">
       <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="102">
       <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="119">
       <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="68">
       <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="34">
       <c r="A53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" t="s">
         <v>193</v>
-      </c>
-      <c r="B53" t="s">
-        <v>195</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="68">
       <c r="A54" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="136">
       <c r="A55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="C55" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="68">
       <c r="A56" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="85">
       <c r="A57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="85">
       <c r="A58" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="238">
       <c r="A59" t="s">
+        <v>312</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="136">
       <c r="A60" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" ht="68">
       <c r="A61" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="85">
       <c r="A62" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="85">
       <c r="A63" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="34">
       <c r="A64" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2742,7 +2743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C77BA87-A2AA-E243-948A-795B7D9F7BCD}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2773,24 +2774,24 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="136">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -2802,52 +2803,52 @@
         <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="85">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" t="s">
         <v>165</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102">
       <c r="A7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
         <v>160</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2867,27 +2868,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="68">
@@ -2895,13 +2896,13 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51">
@@ -2915,29 +2916,29 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="85">
       <c r="A13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>94</v>
@@ -2967,7 +2968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC51F716-6BEC-064F-897F-EC82AB538175}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2995,187 +2996,187 @@
     </row>
     <row r="2" spans="1:4" ht="51">
       <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="119">
       <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136">
       <c r="A5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="119">
       <c r="A6" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85">
       <c r="A7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34">
       <c r="A8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51">
       <c r="A9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51">
       <c r="A10" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="102">
       <c r="A11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="102">
       <c r="A12" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="51">
       <c r="A13" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="51">
       <c r="A14" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34">
       <c r="A15" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -3226,7 +3227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEC5F50-B9BE-434E-94FB-39AD465DD65A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3254,123 +3255,123 @@
     </row>
     <row r="2" spans="1:4" ht="136">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="102">
       <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136">
       <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
       <c r="A6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="68">
       <c r="A7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="68">
       <c r="A8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="102">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3475,60 +3476,60 @@
     </row>
     <row r="2" spans="1:4" ht="170">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="17">
       <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="51">
       <c r="A4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51">
       <c r="A5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="51">
       <c r="A6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -3620,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D819F654-54A5-B642-B8AF-FBB8279CBA58}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3648,151 +3649,151 @@
     </row>
     <row r="2" spans="1:4" ht="85">
       <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="119">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34">
       <c r="A4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" t="s">
         <v>287</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="68">
       <c r="A5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="68">
       <c r="A6" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34">
       <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34">
       <c r="A8" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="102">
       <c r="A9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="102">
       <c r="A10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="68">
       <c r="A11" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51">
       <c r="A12" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -3861,7 +3862,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3888,39 +3889,39 @@
     </row>
     <row r="2" spans="1:4" ht="51">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="102">
       <c r="A4" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -3929,7 +3930,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>94</v>
@@ -3941,7 +3942,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>94</v>
@@ -3950,16 +3951,16 @@
     </row>
     <row r="7" spans="1:4" ht="68">
       <c r="A7" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:4">
